--- a/biology/Zoologie/Dysdera_crocata/Dysdera_crocata.xlsx
+++ b/biology/Zoologie/Dysdera_crocata/Dysdera_crocata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dysdera crocata, la Dysdère armée,  est une espèce d'araignées aranéomorphes de la famille des Dysderidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dysdera crocata, la Dysdère armée,  est une espèce d'araignées aranéomorphes de la famille des Dysderidae.
 </t>
         </is>
       </c>
@@ -511,12 +523,14 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dysdera crocata est presque cosmopolite par introduction[1].
-Cette espèce se rencontre en Europe, en Afrique du Nord, au Moyen-Orient et en Asie centrale[1].
-Elle a été introduite en Amérique du Nord, au Brésil, au Chili, en Afrique du Sud, en Australie, en Nouvelle-Zélande et à Hawaï[1].
-Selon Deeleman-Reinhold et Deeleman en 1988[2], elle est originaire d'Europe et a été diffusée de par le monde par voie maritime.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dysdera crocata est presque cosmopolite par introduction.
+Cette espèce se rencontre en Europe, en Afrique du Nord, au Moyen-Orient et en Asie centrale.
+Elle a été introduite en Amérique du Nord, au Brésil, au Chili, en Afrique du Sud, en Australie, en Nouvelle-Zélande et à Hawaï.
+Selon Deeleman-Reinhold et Deeleman en 1988, elle est originaire d'Europe et a été diffusée de par le monde par voie maritime.
 </t>
         </is>
       </c>
@@ -545,9 +559,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les mâles mesurent de 9 à 10 mm et les femelles de 11 à 15 mm[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les mâles mesurent de 9 à 10 mm et les femelles de 11 à 15 mm.
 On peut observer la présence d'une à trois épines sur la base du fémur IV. Les chélicères font de plus de 50 % du céphalothorax.
 </t>
         </is>
@@ -577,7 +593,9 @@
           <t>Éthologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle chasse les cloportes la nuit, qu'elle capture avec ses énormes chélicères mais pour autant ces crustacés ne sont pas leur unique source de nourriture.
 Ce sont des araignées errantes nocturnes qui passent la journée enfermées dans une loge de soie placée dans la litière, sous les pierres, ou encore, plus rarement, sous les écorces soulevées près du sol.
@@ -611,9 +629,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon World Spider Catalog                                (version 23.5, 10/01/2023)[1] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon World Spider Catalog                                (version 23.5, 10/01/2023) :
 Dysdera crocata crocata C. L. Koch, 1838
 Dysdera crocata mutica Simon, 1911 d'Algérie
 Dysdera crocata parvula Simon, 1911 d'Algérie</t>
@@ -644,15 +664,17 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce a été décrite par C. L. Koch en 1838.
-Dysdera australiensis[4] a été placée en synonymie par Hickman en 1967[5].
-Dysdera cretica[6], Dysdera sternalis[6] et Dysdera menozzii[7] ont été placées en synonymie par Deeleman-Reinhold et Deeleman en 1988[2].
-Dysdera palmensis[8] a été placée en synonymie par Arnedo, Oromí et Ribera en 1997[9].
-Dysdera inaequuscapillata[10] a été placée en synonymie par Arnedo et Ribera en 1999[11].
-Dysdera wollastoni[12] a été placée en synonymie par Arnedo, Oromí et Ribera en 2000[13].
-Dysdera magna[14] a été placée en synonymie par Řezáč, Král et Pekár en 2008[15].
+Dysdera australiensis a été placée en synonymie par Hickman en 1967.
+Dysdera cretica, Dysdera sternalis et Dysdera menozzii ont été placées en synonymie par Deeleman-Reinhold et Deeleman en 1988.
+Dysdera palmensis a été placée en synonymie par Arnedo, Oromí et Ribera en 1997.
+Dysdera inaequuscapillata a été placée en synonymie par Arnedo et Ribera en 1999.
+Dysdera wollastoni a été placée en synonymie par Arnedo, Oromí et Ribera en 2000.
+Dysdera magna a été placée en synonymie par Řezáč, Král et Pekár en 2008.
 </t>
         </is>
       </c>
@@ -681,7 +703,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>C. L. Koch, 1838 : Die Arachniden. Nürnberg, Vierter Band, p. 109-144, Funfter Band, p. 1-124 (texte intégral).
 Simon, 1911 : « Catalogue raisonné des arachnides du nord de l'Afrique (1re partie). » Annales de la Société entomologique de France, vol. 79, p. 265-332 (texte intégral).</t>
